--- a/sw/motoCalcBot/motocalc_results.xlsx
+++ b/sw/motoCalcBot/motocalc_results.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F274"/>
+  <dimension ref="A1:F624"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -7558,6 +7558,9106 @@
         <v>31</v>
       </c>
     </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F275" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
+      <c r="E276" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F276" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>2</v>
+      </c>
+      <c r="E277" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F277" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>3</v>
+      </c>
+      <c r="E278" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F278" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>4</v>
+      </c>
+      <c r="E279" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F279" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>5</v>
+      </c>
+      <c r="E280" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F280" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>6</v>
+      </c>
+      <c r="E281" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F281" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>7</v>
+      </c>
+      <c r="E282" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F282" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>8</v>
+      </c>
+      <c r="E283" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F283" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>9</v>
+      </c>
+      <c r="E284" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F284" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>10</v>
+      </c>
+      <c r="E285" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F285" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>11</v>
+      </c>
+      <c r="E286" t="n">
+        <v>7</v>
+      </c>
+      <c r="F286" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>12</v>
+      </c>
+      <c r="E287" t="n">
+        <v>7</v>
+      </c>
+      <c r="F287" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>13</v>
+      </c>
+      <c r="E288" t="n">
+        <v>7</v>
+      </c>
+      <c r="F288" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>14</v>
+      </c>
+      <c r="E289" t="n">
+        <v>7</v>
+      </c>
+      <c r="F289" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>15</v>
+      </c>
+      <c r="E290" t="n">
+        <v>7</v>
+      </c>
+      <c r="F290" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>16</v>
+      </c>
+      <c r="E291" t="n">
+        <v>7</v>
+      </c>
+      <c r="F291" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>17</v>
+      </c>
+      <c r="E292" t="n">
+        <v>7</v>
+      </c>
+      <c r="F292" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>18</v>
+      </c>
+      <c r="E293" t="n">
+        <v>7</v>
+      </c>
+      <c r="F293" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>19</v>
+      </c>
+      <c r="E294" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F294" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>20</v>
+      </c>
+      <c r="E295" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F295" t="n">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>21</v>
+      </c>
+      <c r="E296" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F296" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>22</v>
+      </c>
+      <c r="E297" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F297" t="n">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>23</v>
+      </c>
+      <c r="E298" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F298" t="n">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>24</v>
+      </c>
+      <c r="E299" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F299" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>25</v>
+      </c>
+      <c r="E300" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F300" t="n">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>26</v>
+      </c>
+      <c r="E301" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="F301" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>27</v>
+      </c>
+      <c r="E302" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F302" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>28</v>
+      </c>
+      <c r="E303" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F303" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>29</v>
+      </c>
+      <c r="E304" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F304" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>30</v>
+      </c>
+      <c r="E305" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F305" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>31</v>
+      </c>
+      <c r="E306" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F306" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>32</v>
+      </c>
+      <c r="E307" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F307" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>33</v>
+      </c>
+      <c r="E308" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F308" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>34</v>
+      </c>
+      <c r="E309" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F309" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>35</v>
+      </c>
+      <c r="E310" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F310" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>36</v>
+      </c>
+      <c r="E311" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F311" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>37</v>
+      </c>
+      <c r="E312" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F312" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>38</v>
+      </c>
+      <c r="E313" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F313" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>39</v>
+      </c>
+      <c r="E314" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F314" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>40</v>
+      </c>
+      <c r="E315" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F315" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>41</v>
+      </c>
+      <c r="E316" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F316" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>42</v>
+      </c>
+      <c r="E317" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F317" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>1</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>2</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>3</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>4</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F322" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>5</v>
+      </c>
+      <c r="E323" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>6</v>
+      </c>
+      <c r="E324" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F324" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>7</v>
+      </c>
+      <c r="E325" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F325" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>8</v>
+      </c>
+      <c r="E326" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F326" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>9</v>
+      </c>
+      <c r="E327" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F327" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>10</v>
+      </c>
+      <c r="E328" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F328" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>11</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1</v>
+      </c>
+      <c r="F329" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>12</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F330" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>13</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F331" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>14</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F332" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>15</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F333" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>16</v>
+      </c>
+      <c r="E334" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F334" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>17</v>
+      </c>
+      <c r="E335" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F335" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>18</v>
+      </c>
+      <c r="E336" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F336" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>19</v>
+      </c>
+      <c r="E337" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F337" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>20</v>
+      </c>
+      <c r="E338" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F338" t="n">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>21</v>
+      </c>
+      <c r="E339" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F339" t="n">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>22</v>
+      </c>
+      <c r="E340" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F340" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26; 1420rpm/V; 0.6A no-load; 0.155 Ohms.</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>23</v>
+      </c>
+      <c r="E341" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F341" t="n">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>1</v>
+      </c>
+      <c r="E343" t="n">
+        <v>0</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>2</v>
+      </c>
+      <c r="E344" t="n">
+        <v>0</v>
+      </c>
+      <c r="F344" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>3</v>
+      </c>
+      <c r="E345" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>4</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F346" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>5</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F347" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>6</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F348" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>7</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F349" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>8</v>
+      </c>
+      <c r="E350" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F350" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>9</v>
+      </c>
+      <c r="E351" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F351" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>10</v>
+      </c>
+      <c r="E352" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F352" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>11</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1</v>
+      </c>
+      <c r="F353" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>12</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F354" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>13</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F355" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>14</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F356" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>15</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F357" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>16</v>
+      </c>
+      <c r="E358" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F358" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>17</v>
+      </c>
+      <c r="E359" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F359" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>18</v>
+      </c>
+      <c r="E360" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F360" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>19</v>
+      </c>
+      <c r="E361" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F361" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>20</v>
+      </c>
+      <c r="E362" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F362" t="n">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>21</v>
+      </c>
+      <c r="E363" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F363" t="n">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>22</v>
+      </c>
+      <c r="E364" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F364" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>23</v>
+      </c>
+      <c r="E365" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F365" t="n">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>24</v>
+      </c>
+      <c r="E366" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F366" t="n">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>25</v>
+      </c>
+      <c r="E367" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F367" t="n">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20 Silver; 1600rpm/V; 0.9A no-load; 0.093 Ohms.</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>26</v>
+      </c>
+      <c r="E368" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F368" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>0</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>1</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0</v>
+      </c>
+      <c r="F370" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>2</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0</v>
+      </c>
+      <c r="F371" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>3</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>4</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F373" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>5</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F374" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>6</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F375" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>7</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F376" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>8</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F377" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>9</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F378" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>10</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F379" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>11</v>
+      </c>
+      <c r="E380" t="n">
+        <v>1</v>
+      </c>
+      <c r="F380" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>12</v>
+      </c>
+      <c r="E381" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F381" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>13</v>
+      </c>
+      <c r="E382" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F382" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>14</v>
+      </c>
+      <c r="E383" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F383" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>15</v>
+      </c>
+      <c r="E384" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F384" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26; 920rpm/V; 0.45A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>16</v>
+      </c>
+      <c r="E385" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F385" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>0</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>1</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>2</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>3</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>4</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F390" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>5</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F391" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>6</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F392" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>7</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F393" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>8</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F394" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>9</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F395" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>10</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F396" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>11</v>
+      </c>
+      <c r="E397" t="n">
+        <v>1</v>
+      </c>
+      <c r="F397" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>12</v>
+      </c>
+      <c r="E398" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F398" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>13</v>
+      </c>
+      <c r="E399" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F399" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>14</v>
+      </c>
+      <c r="E400" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F400" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/26 Silver; 880rpm/V; 0.55A no-load; 0.225 Ohms.</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>15</v>
+      </c>
+      <c r="E401" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F401" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>0</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0</v>
+      </c>
+      <c r="F402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>1</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>2</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>3</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F405" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>4</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F406" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>5</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F407" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>6</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F408" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>7</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F409" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>8</v>
+      </c>
+      <c r="E410" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F410" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>9</v>
+      </c>
+      <c r="E411" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F411" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>10</v>
+      </c>
+      <c r="E412" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F412" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>11</v>
+      </c>
+      <c r="E413" t="n">
+        <v>1</v>
+      </c>
+      <c r="F413" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>12</v>
+      </c>
+      <c r="E414" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F414" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>13</v>
+      </c>
+      <c r="E415" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F415" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>14</v>
+      </c>
+      <c r="E416" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F416" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>15</v>
+      </c>
+      <c r="E417" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F417" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>16</v>
+      </c>
+      <c r="E418" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F418" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>17</v>
+      </c>
+      <c r="E419" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F419" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>18</v>
+      </c>
+      <c r="E420" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F420" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>19</v>
+      </c>
+      <c r="E421" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F421" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>20</v>
+      </c>
+      <c r="E422" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F422" t="n">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/26 Silver; 1330rpm/V; 0.7A no-load; 0.17 Ohms.</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>21</v>
+      </c>
+      <c r="E423" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F423" t="n">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/34; 710rpm/V; 0.4A no-load; 0.345 Ohms.</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>0</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/34; 710rpm/V; 0.4A no-load; 0.345 Ohms.</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>1</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/34; 710rpm/V; 0.4A no-load; 0.345 Ohms.</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>2</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/34; 710rpm/V; 0.4A no-load; 0.345 Ohms.</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>3</v>
+      </c>
+      <c r="E427" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/34; 710rpm/V; 0.4A no-load; 0.345 Ohms.</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>4</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F428" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/34; 710rpm/V; 0.4A no-load; 0.345 Ohms.</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>5</v>
+      </c>
+      <c r="E429" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F429" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/34; 710rpm/V; 0.4A no-load; 0.345 Ohms.</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>6</v>
+      </c>
+      <c r="E430" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F430" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/34; 710rpm/V; 0.4A no-load; 0.345 Ohms.</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>7</v>
+      </c>
+      <c r="E431" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F431" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/34; 710rpm/V; 0.4A no-load; 0.345 Ohms.</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>8</v>
+      </c>
+      <c r="E432" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F432" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/34; 710rpm/V; 0.4A no-load; 0.345 Ohms.</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>9</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F433" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/34; 710rpm/V; 0.4A no-load; 0.345 Ohms.</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>10</v>
+      </c>
+      <c r="E434" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F434" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/34; 710rpm/V; 0.4A no-load; 0.345 Ohms.</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>11</v>
+      </c>
+      <c r="E435" t="n">
+        <v>1</v>
+      </c>
+      <c r="F435" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/34; 710rpm/V; 0.4A no-load; 0.345 Ohms.</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>12</v>
+      </c>
+      <c r="E436" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F436" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold V2 Long; 710rpm/V; 0.4A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>0</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold V2 Long; 710rpm/V; 0.4A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>1</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold V2 Long; 710rpm/V; 0.4A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>2</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold V2 Long; 710rpm/V; 0.4A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>3</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold V2 Long; 710rpm/V; 0.4A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>4</v>
+      </c>
+      <c r="E441" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F441" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold V2 Long; 710rpm/V; 0.4A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>5</v>
+      </c>
+      <c r="E442" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F442" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold V2 Long; 710rpm/V; 0.4A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>6</v>
+      </c>
+      <c r="E443" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F443" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold V2 Long; 710rpm/V; 0.4A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>7</v>
+      </c>
+      <c r="E444" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F444" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold V2 Long; 710rpm/V; 0.4A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>8</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F445" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold V2 Long; 710rpm/V; 0.4A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>9</v>
+      </c>
+      <c r="E446" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F446" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold V2 Long; 710rpm/V; 0.4A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>10</v>
+      </c>
+      <c r="E447" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F447" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold V2 Long; 710rpm/V; 0.4A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>11</v>
+      </c>
+      <c r="E448" t="n">
+        <v>1</v>
+      </c>
+      <c r="F448" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold V2 Long; 710rpm/V; 0.4A no-load; 0.21 Ohms.</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>12</v>
+      </c>
+      <c r="E449" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F449" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>0</v>
+      </c>
+      <c r="E450" t="n">
+        <v>3</v>
+      </c>
+      <c r="F450" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>1</v>
+      </c>
+      <c r="E451" t="n">
+        <v>3</v>
+      </c>
+      <c r="F451" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>2</v>
+      </c>
+      <c r="E452" t="n">
+        <v>3</v>
+      </c>
+      <c r="F452" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>3</v>
+      </c>
+      <c r="E453" t="n">
+        <v>3</v>
+      </c>
+      <c r="F453" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>4</v>
+      </c>
+      <c r="E454" t="n">
+        <v>3</v>
+      </c>
+      <c r="F454" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>5</v>
+      </c>
+      <c r="E455" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F455" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>6</v>
+      </c>
+      <c r="E456" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F456" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>7</v>
+      </c>
+      <c r="E457" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F457" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>8</v>
+      </c>
+      <c r="E458" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F458" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>9</v>
+      </c>
+      <c r="E459" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F459" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>10</v>
+      </c>
+      <c r="E460" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F460" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>11</v>
+      </c>
+      <c r="E461" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F461" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>12</v>
+      </c>
+      <c r="E462" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F462" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>13</v>
+      </c>
+      <c r="E463" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F463" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>14</v>
+      </c>
+      <c r="E464" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F464" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>15</v>
+      </c>
+      <c r="E465" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F465" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>16</v>
+      </c>
+      <c r="E466" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F466" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>17</v>
+      </c>
+      <c r="E467" t="n">
+        <v>3</v>
+      </c>
+      <c r="F467" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>18</v>
+      </c>
+      <c r="E468" t="n">
+        <v>3</v>
+      </c>
+      <c r="F468" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>19</v>
+      </c>
+      <c r="E469" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F469" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>20</v>
+      </c>
+      <c r="E470" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F470" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>21</v>
+      </c>
+      <c r="E471" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F471" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>22</v>
+      </c>
+      <c r="E472" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F472" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>23</v>
+      </c>
+      <c r="E473" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F473" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>24</v>
+      </c>
+      <c r="E474" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F474" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>25</v>
+      </c>
+      <c r="E475" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F475" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>26</v>
+      </c>
+      <c r="E476" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F476" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>27</v>
+      </c>
+      <c r="E477" t="n">
+        <v>2</v>
+      </c>
+      <c r="F477" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>28</v>
+      </c>
+      <c r="E478" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F478" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>29</v>
+      </c>
+      <c r="E479" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F479" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>30</v>
+      </c>
+      <c r="E480" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F480" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>31</v>
+      </c>
+      <c r="E481" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F481" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Astro 210; 4 controls (separate); 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>32</v>
+      </c>
+      <c r="E482" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F482" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>0</v>
+      </c>
+      <c r="E483" t="n">
+        <v>0</v>
+      </c>
+      <c r="F483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>1</v>
+      </c>
+      <c r="E484" t="n">
+        <v>0</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>2</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0</v>
+      </c>
+      <c r="F485" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>3</v>
+      </c>
+      <c r="E486" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F486" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>4</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F487" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>5</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F488" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>6</v>
+      </c>
+      <c r="E489" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F489" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>7</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F490" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>8</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F491" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>9</v>
+      </c>
+      <c r="E492" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F492" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>10</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F493" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>11</v>
+      </c>
+      <c r="E494" t="n">
+        <v>1</v>
+      </c>
+      <c r="F494" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>12</v>
+      </c>
+      <c r="E495" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F495" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>13</v>
+      </c>
+      <c r="E496" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F496" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>14</v>
+      </c>
+      <c r="E497" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F497" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D498" t="n">
+        <v>15</v>
+      </c>
+      <c r="E498" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F498" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D499" t="n">
+        <v>16</v>
+      </c>
+      <c r="E499" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F499" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34 Silver; 1060rpm/V; 0.45A no-load; 0.285 Ohms.</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>17</v>
+      </c>
+      <c r="E500" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F500" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>0</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0</v>
+      </c>
+      <c r="F501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>1</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0</v>
+      </c>
+      <c r="F502" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>2</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0</v>
+      </c>
+      <c r="F503" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>3</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F504" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>4</v>
+      </c>
+      <c r="E505" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F505" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>5</v>
+      </c>
+      <c r="E506" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F506" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>6</v>
+      </c>
+      <c r="E507" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F507" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>7</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F508" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>8</v>
+      </c>
+      <c r="E509" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F509" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>9</v>
+      </c>
+      <c r="E510" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F510" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>10</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F511" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D512" t="n">
+        <v>11</v>
+      </c>
+      <c r="E512" t="n">
+        <v>1</v>
+      </c>
+      <c r="F512" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>12</v>
+      </c>
+      <c r="E513" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F513" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>13</v>
+      </c>
+      <c r="E514" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F514" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>14</v>
+      </c>
+      <c r="E515" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F515" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>15</v>
+      </c>
+      <c r="E516" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F516" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D517" t="n">
+        <v>16</v>
+      </c>
+      <c r="E517" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F517" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D518" t="n">
+        <v>17</v>
+      </c>
+      <c r="E518" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F518" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D519" t="n">
+        <v>18</v>
+      </c>
+      <c r="E519" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F519" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>19</v>
+      </c>
+      <c r="E520" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F520" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>20</v>
+      </c>
+      <c r="E521" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F521" t="n">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D522" t="n">
+        <v>21</v>
+      </c>
+      <c r="E522" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F522" t="n">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>22</v>
+      </c>
+      <c r="E523" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F523" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D524" t="n">
+        <v>23</v>
+      </c>
+      <c r="E524" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F524" t="n">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>24</v>
+      </c>
+      <c r="E525" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F525" t="n">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D526" t="n">
+        <v>25</v>
+      </c>
+      <c r="E526" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F526" t="n">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D527" t="n">
+        <v>26</v>
+      </c>
+      <c r="E527" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F527" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D528" t="n">
+        <v>27</v>
+      </c>
+      <c r="E528" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F528" t="n">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D529" t="n">
+        <v>28</v>
+      </c>
+      <c r="E529" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="F529" t="n">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/20; 1820rpm/V; 0.8A no-load; 0.089 Ohms.</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D530" t="n">
+        <v>29</v>
+      </c>
+      <c r="E530" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="F530" t="n">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D531" t="n">
+        <v>0</v>
+      </c>
+      <c r="E531" t="n">
+        <v>0</v>
+      </c>
+      <c r="F531" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D532" t="n">
+        <v>1</v>
+      </c>
+      <c r="E532" t="n">
+        <v>0</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D533" t="n">
+        <v>2</v>
+      </c>
+      <c r="E533" t="n">
+        <v>0</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D534" t="n">
+        <v>3</v>
+      </c>
+      <c r="E534" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F534" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>4</v>
+      </c>
+      <c r="E535" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F535" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>5</v>
+      </c>
+      <c r="E536" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F536" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>6</v>
+      </c>
+      <c r="E537" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F537" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>7</v>
+      </c>
+      <c r="E538" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F538" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>8</v>
+      </c>
+      <c r="E539" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F539" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>9</v>
+      </c>
+      <c r="E540" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F540" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
+        <v>10</v>
+      </c>
+      <c r="E541" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F541" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D542" t="n">
+        <v>11</v>
+      </c>
+      <c r="E542" t="n">
+        <v>1</v>
+      </c>
+      <c r="F542" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D543" t="n">
+        <v>12</v>
+      </c>
+      <c r="E543" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F543" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D544" t="n">
+        <v>13</v>
+      </c>
+      <c r="E544" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F544" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D545" t="n">
+        <v>14</v>
+      </c>
+      <c r="E545" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F545" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D546" t="n">
+        <v>15</v>
+      </c>
+      <c r="E546" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F546" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D547" t="n">
+        <v>16</v>
+      </c>
+      <c r="E547" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F547" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D548" t="n">
+        <v>17</v>
+      </c>
+      <c r="E548" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F548" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D549" t="n">
+        <v>18</v>
+      </c>
+      <c r="E549" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F549" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20; 1150rpm/V; 0.7A no-load; 0.135 Ohms.</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D550" t="n">
+        <v>19</v>
+      </c>
+      <c r="E550" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F550" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D551" t="n">
+        <v>0</v>
+      </c>
+      <c r="E551" t="n">
+        <v>0</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D552" t="n">
+        <v>1</v>
+      </c>
+      <c r="E552" t="n">
+        <v>0</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D553" t="n">
+        <v>2</v>
+      </c>
+      <c r="E553" t="n">
+        <v>0</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D554" t="n">
+        <v>3</v>
+      </c>
+      <c r="E554" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D555" t="n">
+        <v>4</v>
+      </c>
+      <c r="E555" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F555" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D556" t="n">
+        <v>5</v>
+      </c>
+      <c r="E556" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F556" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D557" t="n">
+        <v>6</v>
+      </c>
+      <c r="E557" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F557" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D558" t="n">
+        <v>7</v>
+      </c>
+      <c r="E558" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F558" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D559" t="n">
+        <v>8</v>
+      </c>
+      <c r="E559" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F559" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D560" t="n">
+        <v>9</v>
+      </c>
+      <c r="E560" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F560" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D561" t="n">
+        <v>10</v>
+      </c>
+      <c r="E561" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F561" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D562" t="n">
+        <v>11</v>
+      </c>
+      <c r="E562" t="n">
+        <v>1</v>
+      </c>
+      <c r="F562" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D563" t="n">
+        <v>12</v>
+      </c>
+      <c r="E563" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F563" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D564" t="n">
+        <v>13</v>
+      </c>
+      <c r="E564" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F564" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D565" t="n">
+        <v>14</v>
+      </c>
+      <c r="E565" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F565" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D566" t="n">
+        <v>15</v>
+      </c>
+      <c r="E566" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F566" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D567" t="n">
+        <v>16</v>
+      </c>
+      <c r="E567" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F567" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D568" t="n">
+        <v>17</v>
+      </c>
+      <c r="E568" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F568" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2208/34; 1100rpm/V; 0.35A no-load; 0.26 Ohms.</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D569" t="n">
+        <v>18</v>
+      </c>
+      <c r="E569" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F569" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D570" t="n">
+        <v>0</v>
+      </c>
+      <c r="E570" t="n">
+        <v>0</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D571" t="n">
+        <v>1</v>
+      </c>
+      <c r="E571" t="n">
+        <v>0</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D572" t="n">
+        <v>2</v>
+      </c>
+      <c r="E572" t="n">
+        <v>0</v>
+      </c>
+      <c r="F572" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D573" t="n">
+        <v>3</v>
+      </c>
+      <c r="E573" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F573" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D574" t="n">
+        <v>4</v>
+      </c>
+      <c r="E574" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F574" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D575" t="n">
+        <v>5</v>
+      </c>
+      <c r="E575" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F575" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D576" t="n">
+        <v>6</v>
+      </c>
+      <c r="E576" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F576" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D577" t="n">
+        <v>7</v>
+      </c>
+      <c r="E577" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F577" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D578" t="n">
+        <v>8</v>
+      </c>
+      <c r="E578" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F578" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D579" t="n">
+        <v>9</v>
+      </c>
+      <c r="E579" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F579" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D580" t="n">
+        <v>10</v>
+      </c>
+      <c r="E580" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F580" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D581" t="n">
+        <v>11</v>
+      </c>
+      <c r="E581" t="n">
+        <v>1</v>
+      </c>
+      <c r="F581" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D582" t="n">
+        <v>12</v>
+      </c>
+      <c r="E582" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F582" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D583" t="n">
+        <v>13</v>
+      </c>
+      <c r="E583" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F583" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D584" t="n">
+        <v>14</v>
+      </c>
+      <c r="E584" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F584" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D585" t="n">
+        <v>15</v>
+      </c>
+      <c r="E585" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F585" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D586" t="n">
+        <v>16</v>
+      </c>
+      <c r="E586" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F586" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D587" t="n">
+        <v>17</v>
+      </c>
+      <c r="E587" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F587" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D588" t="n">
+        <v>18</v>
+      </c>
+      <c r="E588" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F588" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D589" t="n">
+        <v>19</v>
+      </c>
+      <c r="E589" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F589" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D590" t="n">
+        <v>20</v>
+      </c>
+      <c r="E590" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F590" t="n">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2204/54; 1400rpm/V; 0.35A no-load; 0.32 Ohms.</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D591" t="n">
+        <v>21</v>
+      </c>
+      <c r="E591" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F591" t="n">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D592" t="n">
+        <v>0</v>
+      </c>
+      <c r="E592" t="n">
+        <v>0</v>
+      </c>
+      <c r="F592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D593" t="n">
+        <v>1</v>
+      </c>
+      <c r="E593" t="n">
+        <v>0</v>
+      </c>
+      <c r="F593" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D594" t="n">
+        <v>2</v>
+      </c>
+      <c r="E594" t="n">
+        <v>0</v>
+      </c>
+      <c r="F594" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D595" t="n">
+        <v>3</v>
+      </c>
+      <c r="E595" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F595" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D596" t="n">
+        <v>4</v>
+      </c>
+      <c r="E596" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F596" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D597" t="n">
+        <v>5</v>
+      </c>
+      <c r="E597" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F597" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D598" t="n">
+        <v>6</v>
+      </c>
+      <c r="E598" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F598" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D599" t="n">
+        <v>7</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F599" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D600" t="n">
+        <v>8</v>
+      </c>
+      <c r="E600" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F600" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D601" t="n">
+        <v>9</v>
+      </c>
+      <c r="E601" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F601" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D602" t="n">
+        <v>10</v>
+      </c>
+      <c r="E602" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F602" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D603" t="n">
+        <v>11</v>
+      </c>
+      <c r="E603" t="n">
+        <v>1</v>
+      </c>
+      <c r="F603" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D604" t="n">
+        <v>12</v>
+      </c>
+      <c r="E604" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F604" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D605" t="n">
+        <v>13</v>
+      </c>
+      <c r="E605" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F605" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D606" t="n">
+        <v>14</v>
+      </c>
+      <c r="E606" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F606" t="n">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D607" t="n">
+        <v>15</v>
+      </c>
+      <c r="E607" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F607" t="n">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D608" t="n">
+        <v>16</v>
+      </c>
+      <c r="E608" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F608" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D609" t="n">
+        <v>17</v>
+      </c>
+      <c r="E609" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F609" t="n">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D610" t="n">
+        <v>18</v>
+      </c>
+      <c r="E610" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F610" t="n">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Model Motors AXI AC2212/20 Silver; 1120rpm/V; 0.85A no-load; 0.145 Ohms.</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D611" t="n">
+        <v>19</v>
+      </c>
+      <c r="E611" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F611" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold Line V2; 710rpm/V; 0.4A no-load; 0.207 Ohms.</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D612" t="n">
+        <v>0</v>
+      </c>
+      <c r="E612" t="n">
+        <v>0</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold Line V2; 710rpm/V; 0.4A no-load; 0.207 Ohms.</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D613" t="n">
+        <v>1</v>
+      </c>
+      <c r="E613" t="n">
+        <v>0</v>
+      </c>
+      <c r="F613" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold Line V2; 710rpm/V; 0.4A no-load; 0.207 Ohms.</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D614" t="n">
+        <v>2</v>
+      </c>
+      <c r="E614" t="n">
+        <v>0</v>
+      </c>
+      <c r="F614" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold Line V2; 710rpm/V; 0.4A no-load; 0.207 Ohms.</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D615" t="n">
+        <v>3</v>
+      </c>
+      <c r="E615" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold Line V2; 710rpm/V; 0.4A no-load; 0.207 Ohms.</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D616" t="n">
+        <v>4</v>
+      </c>
+      <c r="E616" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F616" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold Line V2; 710rpm/V; 0.4A no-load; 0.207 Ohms.</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D617" t="n">
+        <v>5</v>
+      </c>
+      <c r="E617" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F617" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold Line V2; 710rpm/V; 0.4A no-load; 0.207 Ohms.</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D618" t="n">
+        <v>6</v>
+      </c>
+      <c r="E618" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F618" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold Line V2; 710rpm/V; 0.4A no-load; 0.207 Ohms.</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D619" t="n">
+        <v>7</v>
+      </c>
+      <c r="E619" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F619" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold Line V2; 710rpm/V; 0.4A no-load; 0.207 Ohms.</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D620" t="n">
+        <v>8</v>
+      </c>
+      <c r="E620" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F620" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold Line V2; 710rpm/V; 0.4A no-load; 0.207 Ohms.</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D621" t="n">
+        <v>9</v>
+      </c>
+      <c r="E621" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F621" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold Line V2; 710rpm/V; 0.4A no-load; 0.207 Ohms.</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D622" t="n">
+        <v>10</v>
+      </c>
+      <c r="E622" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F622" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold Line V2; 710rpm/V; 0.4A no-load; 0.207 Ohms.</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D623" t="n">
+        <v>11</v>
+      </c>
+      <c r="E623" t="n">
+        <v>1</v>
+      </c>
+      <c r="F623" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Model Motors AXI 2212/34 Gold Line V2; 710rpm/V; 0.4A no-load; 0.207 Ohms.</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Sanyo 1700SCR; 6 cells; 1700mAh @ 1.2V; 0.004 Ohms/cell.</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>Astro 210; 0.003 Ohms; High rate.</t>
+        </is>
+      </c>
+      <c r="D624" t="n">
+        <v>12</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F624" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
